--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/06_EntityType_kpi.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/06_EntityType_kpi.xlsx
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="189">
   <si>
     <t>Entity name</t>
   </si>
@@ -773,9 +773,6 @@
     <t>Real</t>
   </si>
   <si>
-    <t>Accenture KPI</t>
-  </si>
-  <si>
     <t>MAN</t>
   </si>
   <si>
@@ -923,24 +920,6 @@
     <t>A_IMP_TOT_VERSAMENTO_Mix</t>
   </si>
   <si>
-    <t>Aggregato Erogato Auto</t>
-  </si>
-  <si>
-    <t>Aggregato Erogato  Man</t>
-  </si>
-  <si>
-    <t>Aggregato Erogato  Mix</t>
-  </si>
-  <si>
-    <t>Aggregato Versato Auto</t>
-  </si>
-  <si>
-    <t>Aggregato Versato Man</t>
-  </si>
-  <si>
-    <t>Aggregato Versato Mix</t>
-  </si>
-  <si>
     <t>VERSAMENTO_RMSE</t>
   </si>
   <si>
@@ -1017,6 +996,54 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>WAPE Prelevato</t>
+  </si>
+  <si>
+    <t>MAE Prelevato</t>
+  </si>
+  <si>
+    <t>MAPE Prelevato</t>
+  </si>
+  <si>
+    <t>MPE Prelevato</t>
+  </si>
+  <si>
+    <t>MSE Prelevato</t>
+  </si>
+  <si>
+    <t>MSE Versato</t>
+  </si>
+  <si>
+    <t>MPE Versato</t>
+  </si>
+  <si>
+    <t>MAPE Versato</t>
+  </si>
+  <si>
+    <t>WAPE Versato</t>
+  </si>
+  <si>
+    <t>MAE Versato</t>
+  </si>
+  <si>
+    <t>Aggregato Erogato ForeAuto</t>
+  </si>
+  <si>
+    <t>Aggregato Erogato  ForeMan</t>
+  </si>
+  <si>
+    <t>Aggregato Erogato  ForeMix</t>
+  </si>
+  <si>
+    <t>Aggregato Versato ForeAuto</t>
+  </si>
+  <si>
+    <t>Aggregato Versato ForeMan</t>
+  </si>
+  <si>
+    <t>Aggregato Versato ForeMix</t>
   </si>
 </sst>
 </file>
@@ -2521,14 +2548,15 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D27"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,366 +2575,366 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3432,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3541,16 +3569,16 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E2" s="65">
         <v>10</v>
@@ -3568,10 +3596,10 @@
         <v>58</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -3581,7 +3609,7 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R2" s="65" t="s">
         <v>59</v>
@@ -3592,7 +3620,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W2" s="65" t="s">
         <v>85</v>
@@ -3612,16 +3640,16 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E3" s="65">
         <v>11</v>
@@ -3639,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -3650,7 +3678,7 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R3" s="65" t="s">
         <v>59</v>
@@ -3661,7 +3689,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W3" s="65" t="s">
         <v>85</v>
@@ -3681,16 +3709,16 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E4" s="65">
         <v>12</v>
@@ -3708,7 +3736,7 @@
         <v>58</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3719,7 +3747,7 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R4" s="65" t="s">
         <v>59</v>
@@ -3730,7 +3758,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W4" s="65" t="s">
         <v>85</v>
@@ -3750,16 +3778,16 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E5" s="65">
         <v>13</v>
@@ -3777,7 +3805,7 @@
         <v>58</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3788,7 +3816,7 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R5" s="65" t="s">
         <v>59</v>
@@ -3799,7 +3827,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W5" s="65" t="s">
         <v>85</v>
@@ -3819,16 +3847,16 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E6" s="65">
         <v>14</v>
@@ -3846,10 +3874,10 @@
         <v>58</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3859,7 +3887,7 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R6" s="65" t="s">
         <v>59</v>
@@ -3870,7 +3898,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W6" s="65" t="s">
         <v>85</v>
@@ -3890,16 +3918,16 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E7" s="65">
         <v>10</v>
@@ -3917,10 +3945,10 @@
         <v>58</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3930,7 +3958,7 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R7" s="65" t="s">
         <v>59</v>
@@ -3941,7 +3969,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W7" s="65" t="s">
         <v>85</v>
@@ -3961,16 +3989,16 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E8" s="65">
         <v>11</v>
@@ -3988,7 +4016,7 @@
         <v>58</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3999,7 +4027,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R8" s="65" t="s">
         <v>59</v>
@@ -4010,7 +4038,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W8" s="65" t="s">
         <v>85</v>
@@ -4030,16 +4058,16 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E9" s="65">
         <v>12</v>
@@ -4057,7 +4085,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -4068,7 +4096,7 @@
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
         <v>59</v>
@@ -4079,7 +4107,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W9" s="65" t="s">
         <v>85</v>
@@ -4099,16 +4127,16 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E10" s="65">
         <v>13</v>
@@ -4126,7 +4154,7 @@
         <v>58</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -4137,7 +4165,7 @@
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R10" s="65" t="s">
         <v>59</v>
@@ -4148,7 +4176,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W10" s="65" t="s">
         <v>85</v>
@@ -4168,16 +4196,16 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E11" s="65">
         <v>14</v>
@@ -4195,10 +4223,10 @@
         <v>58</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4208,7 +4236,7 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R11" s="65" t="s">
         <v>59</v>
@@ -4219,7 +4247,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W11" s="65" t="s">
         <v>85</v>
@@ -4239,37 +4267,37 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="65">
+        <v>20</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="65">
-        <v>10</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>99</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4279,7 +4307,7 @@
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R12" s="65" t="s">
         <v>59</v>
@@ -4290,7 +4318,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W12" s="65" t="s">
         <v>85</v>
@@ -4310,34 +4338,34 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="65">
+        <v>21</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="E13" s="65">
-        <v>11</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -4348,7 +4376,7 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R13" s="65" t="s">
         <v>59</v>
@@ -4359,7 +4387,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W13" s="65" t="s">
         <v>85</v>
@@ -4379,34 +4407,34 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="65">
+        <v>22</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="E14" s="65">
-        <v>12</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4417,7 +4445,7 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R14" s="65" t="s">
         <v>59</v>
@@ -4428,7 +4456,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W14" s="65" t="s">
         <v>85</v>
@@ -4448,34 +4476,34 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="65">
+        <v>23</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="65">
-        <v>13</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4486,7 +4514,7 @@
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R15" s="65" t="s">
         <v>59</v>
@@ -4497,7 +4525,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W15" s="65" t="s">
         <v>85</v>
@@ -4517,37 +4545,37 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="65">
+        <v>24</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="65">
-        <v>14</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>99</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4557,7 +4585,7 @@
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R16" s="65" t="s">
         <v>59</v>
@@ -4568,7 +4596,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W16" s="65" t="s">
         <v>85</v>
@@ -4588,37 +4616,37 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="65">
+        <v>25</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="65">
-        <v>10</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="65" t="s">
-        <v>99</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4628,7 +4656,7 @@
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R17" s="65" t="s">
         <v>59</v>
@@ -4639,7 +4667,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W17" s="65" t="s">
         <v>85</v>
@@ -4659,34 +4687,34 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="65">
+        <v>26</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="65">
-        <v>11</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4697,7 +4725,7 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R18" s="65" t="s">
         <v>59</v>
@@ -4708,7 +4736,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W18" s="65" t="s">
         <v>85</v>
@@ -4728,34 +4756,34 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="65">
+        <v>27</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="E19" s="65">
-        <v>12</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4766,7 +4794,7 @@
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R19" s="65" t="s">
         <v>59</v>
@@ -4777,7 +4805,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W19" s="65" t="s">
         <v>85</v>
@@ -4797,34 +4825,34 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="65">
+        <v>28</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="E20" s="65">
-        <v>13</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -4835,7 +4863,7 @@
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R20" s="65" t="s">
         <v>59</v>
@@ -4846,7 +4874,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W20" s="65" t="s">
         <v>85</v>
@@ -4866,37 +4894,37 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="65">
+        <v>29</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="65">
-        <v>14</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>99</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -4906,7 +4934,7 @@
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R21" s="65" t="s">
         <v>59</v>
@@ -4917,7 +4945,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W21" s="65" t="s">
         <v>85</v>
@@ -4970,222 +4998,222 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5234,122 +5262,122 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="43">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="43">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="43">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="43">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="43">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="43">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/06_EntityType_kpi.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/06_EntityType_kpi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="684" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Attributes Labels" sheetId="10" r:id="rId10"/>
     <sheet name="Legend for Attributes" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="209">
   <si>
     <t>Entity name</t>
   </si>
@@ -1044,6 +1044,66 @@
   </si>
   <si>
     <t>Aggregato Versato ForeMix</t>
+  </si>
+  <si>
+    <t>PRELEVATO_RMSE_MONTE</t>
+  </si>
+  <si>
+    <t>PRELEVATO_A_MPE_MONTE</t>
+  </si>
+  <si>
+    <t>PRELEVATO_A_MAPE_MONTE</t>
+  </si>
+  <si>
+    <t>PRELEVATO_A_WAPE_MONTE</t>
+  </si>
+  <si>
+    <t>PRELEVATO_MAE_MONTE</t>
+  </si>
+  <si>
+    <t>MSE Prelevato Monte</t>
+  </si>
+  <si>
+    <t>MPE Prelevato Monte</t>
+  </si>
+  <si>
+    <t>MAPE Prelevato Monte</t>
+  </si>
+  <si>
+    <t>WAPE Prelevato Monte</t>
+  </si>
+  <si>
+    <t>MAE Prelevato Monte</t>
+  </si>
+  <si>
+    <t>A_PuntoDiPrelievo.PRELEVATO_RMSE_MONTE</t>
+  </si>
+  <si>
+    <t>A_PuntoDiPrelievo.PRELEVATO_A_MPE_MONTE</t>
+  </si>
+  <si>
+    <t>A_PuntoDiPrelievo.PRELEVATO_A_MAPE_MONTE</t>
+  </si>
+  <si>
+    <t>A_PuntoDiPrelievo.PRELEVATO_A_WAPE_MONTE</t>
+  </si>
+  <si>
+    <t>A_PuntoDiPrelievo.PRELEVATO_MAE_MONTE</t>
+  </si>
+  <si>
+    <t>return KpiLibrary.calculateEachKpi(A_PuntoDiPrelievo, 'A_PUNTOPRELIEVO_PRELEVATO_MONTE', 'RMSE');</t>
+  </si>
+  <si>
+    <t>return KpiLibrary.calculateEachKpi(A_PuntoDiPrelievo, 'A_PUNTOPRELIEVO_PRELEVATO_MONTE', 'A-MPE');</t>
+  </si>
+  <si>
+    <t>return KpiLibrary.calculateEachKpi(A_PuntoDiPrelievo, 'A_PUNTOPRELIEVO_PRELEVATO_MONTE', 'A-MAPE');</t>
+  </si>
+  <si>
+    <t>return KpiLibrary.calculateEachKpi(A_PuntoDiPrelievo, 'A_PUNTOPRELIEVO_PRELEVATO_MONTE', 'A-WAPE');</t>
+  </si>
+  <si>
+    <t>return KpiLibrary.calculateEachKpi(A_PuntoDiPrelievo, 'A_PUNTOPRELIEVO_PRELEVATO_MONTE', 'MAE');</t>
   </si>
 </sst>
 </file>
@@ -2545,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2935,6 +2995,76 @@
       </c>
       <c r="D27" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3458,17 +3588,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="16" width="30" style="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="42.85546875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="31" width="30" style="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3918,10 +4048,10 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>97</v>
@@ -3930,7 +4060,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="65" t="s">
         <v>59</v>
@@ -3958,7 +4088,7 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="R7" s="65" t="s">
         <v>59</v>
@@ -3989,10 +4119,10 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>97</v>
@@ -4001,7 +4131,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="65">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>59</v>
@@ -4027,7 +4157,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="R8" s="65" t="s">
         <v>59</v>
@@ -4058,10 +4188,10 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>97</v>
@@ -4070,7 +4200,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="65">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F9" s="65" t="s">
         <v>59</v>
@@ -4096,7 +4226,7 @@
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="R9" s="65" t="s">
         <v>59</v>
@@ -4127,10 +4257,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>97</v>
@@ -4139,7 +4269,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="65">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" s="65" t="s">
         <v>59</v>
@@ -4165,7 +4295,7 @@
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="R10" s="65" t="s">
         <v>59</v>
@@ -4196,10 +4326,10 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>97</v>
@@ -4208,7 +4338,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="65">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F11" s="65" t="s">
         <v>59</v>
@@ -4236,7 +4366,7 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="R11" s="65" t="s">
         <v>59</v>
@@ -4270,7 +4400,7 @@
         <v>101</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>97</v>
@@ -4279,7 +4409,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="65">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12" s="65" t="s">
         <v>59</v>
@@ -4307,7 +4437,7 @@
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="R12" s="65" t="s">
         <v>59</v>
@@ -4341,7 +4471,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>97</v>
@@ -4350,7 +4480,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="65">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F13" s="65" t="s">
         <v>59</v>
@@ -4376,7 +4506,7 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="R13" s="65" t="s">
         <v>59</v>
@@ -4410,7 +4540,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>97</v>
@@ -4419,7 +4549,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="65">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F14" s="65" t="s">
         <v>59</v>
@@ -4445,7 +4575,7 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="R14" s="65" t="s">
         <v>59</v>
@@ -4479,7 +4609,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>97</v>
@@ -4488,7 +4618,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="65">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F15" s="65" t="s">
         <v>59</v>
@@ -4514,7 +4644,7 @@
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="R15" s="65" t="s">
         <v>59</v>
@@ -4548,7 +4678,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>97</v>
@@ -4557,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="65">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>59</v>
@@ -4585,7 +4715,7 @@
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="R16" s="65" t="s">
         <v>59</v>
@@ -4619,7 +4749,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>97</v>
@@ -4628,7 +4758,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="65">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>59</v>
@@ -4656,7 +4786,7 @@
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="R17" s="65" t="s">
         <v>59</v>
@@ -4690,7 +4820,7 @@
         <v>112</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>97</v>
@@ -4699,7 +4829,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="65">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>59</v>
@@ -4725,7 +4855,7 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="R18" s="65" t="s">
         <v>59</v>
@@ -4759,7 +4889,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>97</v>
@@ -4768,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="65">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>59</v>
@@ -4794,7 +4924,7 @@
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="R19" s="65" t="s">
         <v>59</v>
@@ -4828,7 +4958,7 @@
         <v>112</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>97</v>
@@ -4837,7 +4967,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="65">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F20" s="65" t="s">
         <v>59</v>
@@ -4863,7 +4993,7 @@
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="R20" s="65" t="s">
         <v>59</v>
@@ -4897,7 +5027,7 @@
         <v>112</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>97</v>
@@ -4906,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="65">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F21" s="65" t="s">
         <v>59</v>
@@ -4934,7 +5064,7 @@
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="R21" s="65" t="s">
         <v>59</v>
@@ -4963,7 +5093,359 @@
         <v>58</v>
       </c>
     </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="65">
+        <v>25</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R22" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="W22" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="65">
+        <v>26</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="W23" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="65">
+        <v>27</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R24" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="W24" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="65">
+        <v>28</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R25" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="65">
+        <v>29</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="W26" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:AE26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4972,15 +5454,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="86.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="53" style="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -5213,6 +5695,61 @@
         <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5226,7 +5763,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
